--- a/biology/Botanique/Lathyrus_niger/Lathyrus_niger.xlsx
+++ b/biology/Botanique/Lathyrus_niger/Lathyrus_niger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gesse noire
 La Gesse noire, Lathyrus niger, est une espèce de plantes herbacées vivaces de la famille des Fabaceae (de la sous-famille des Faboideae selon la classification phylogénétique).
@@ -512,14 +524,51 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15-90 cm de hauteur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15-90 cm de hauteur.
 Rhizome (hémicryptophyte).
 Les fleurs sont rose-pourpre, disposées en grappes. Les tiges sont anguleuses, non ailées. Les feuilles sont pennées, composées de 6 à 12 folioles elliptiques. Pétiole non ailé. Les gousses sont longues de 5 cm, aplaties, sinueuses et réticulées.
 Confusion possible avec la Gesse des montagnes dont les tiges sont ailées.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lathyrus_niger</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lathyrus_niger</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
 Couleur dominante des fleurs : rose
 Période de floraison : avril-juillet
 Inflorescence :
@@ -534,31 +583,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Lathyrus_niger</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lathyrus_niger</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">France : l'espèce est inscrite dans les listes des espèces végétales protégées de Lorraine, Île-de-France, Champagne-Ardenne et Picardie.
 </t>
